--- a/game_data_input.xlsx
+++ b/game_data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7-e\Quiz app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFF010C-8152-4FE7-9C67-F5C958D89B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B87191-4D29-46D8-AA82-A31F094A6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16896344-8283-4556-B78E-0A7E9EF581D9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>STORE_ID</t>
   </si>
@@ -44,24 +44,9 @@
     <t>CATEGORY_FOR_MEMBER_ACTIVITY_KPIS</t>
   </si>
   <si>
-    <t>Slurpee</t>
-  </si>
-  <si>
-    <t>Carbonated Soft Drinks</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
     <t>CATEGORY_FOR_OVERALL_KPIS</t>
   </si>
   <si>
-    <t>Bakery</t>
-  </si>
-  <si>
-    <t>Redbull</t>
-  </si>
-  <si>
     <t>Chips</t>
   </si>
   <si>
@@ -162,6 +147,24 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Grill</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>Energy Drinks</t>
+  </si>
+  <si>
+    <t>Cigarettes</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
 </sst>
 </file>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC29D29C-35E3-443A-80CF-558999E347C5}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,97 +637,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -732,97 +735,97 @@
         <v>10017</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4">
-        <v>3025</v>
+        <v>1735</v>
       </c>
       <c r="G2" s="4">
-        <v>20851</v>
+        <v>10577</v>
       </c>
       <c r="H2" s="4">
-        <v>8061</v>
+        <v>3697</v>
       </c>
       <c r="I2" s="5">
-        <v>0.38660016306172301</v>
+        <v>0.34953200340361101</v>
       </c>
       <c r="J2" s="4">
-        <v>542</v>
+        <v>291</v>
       </c>
       <c r="K2" s="4">
-        <v>1602</v>
+        <v>2780</v>
       </c>
       <c r="L2" s="4">
-        <v>2478</v>
+        <v>742</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="N2" s="3">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="O2" s="5">
-        <v>0.13586776859504099</v>
+        <v>0.20057636887607999</v>
       </c>
       <c r="P2" s="4">
-        <v>49.503649635036403</v>
+        <v>42.143678160919499</v>
       </c>
       <c r="Q2" s="4">
-        <v>1872</v>
+        <v>870</v>
       </c>
       <c r="R2" s="5">
-        <v>0.61884297520661102</v>
+        <v>0.50144092219020098</v>
       </c>
       <c r="S2" s="4">
-        <v>18299</v>
+        <v>5615</v>
       </c>
       <c r="T2" s="4">
-        <v>9.7751068376068293</v>
+        <v>6.4540229885057396</v>
       </c>
       <c r="U2" s="4">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="V2" s="5">
-        <v>0.10082644628099099</v>
+        <v>8.9337175792507204E-2</v>
       </c>
       <c r="W2" s="6">
-        <v>57734.319895950997</v>
+        <v>22509.919943671601</v>
       </c>
       <c r="X2" s="6">
-        <v>189.292852117872</v>
+        <v>145.22528995917199</v>
       </c>
       <c r="Y2" s="4">
-        <v>688</v>
+        <v>219</v>
       </c>
       <c r="Z2" s="5">
-        <v>0.22743801652892501</v>
+        <v>0.12622478386167099</v>
       </c>
       <c r="AA2" s="4">
-        <v>11187</v>
+        <v>2919</v>
       </c>
       <c r="AB2" s="4">
-        <v>16.260174418604599</v>
+        <v>13.3287671232876</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="4">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="AE2" s="4">
-        <v>663</v>
+        <v>545</v>
       </c>
       <c r="AF2" s="5">
-        <v>0.69351464435146404</v>
+        <v>0.581023454157782</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -830,97 +833,97 @@
         <v>10022</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4">
-        <v>2040</v>
+        <v>1654</v>
       </c>
       <c r="G3" s="4">
-        <v>17868</v>
+        <v>14839</v>
       </c>
       <c r="H3" s="4">
-        <v>7883</v>
+        <v>4466</v>
       </c>
       <c r="I3" s="5">
-        <v>0.441179762704275</v>
+        <v>0.30096367679762698</v>
       </c>
       <c r="J3" s="4">
-        <v>460</v>
+        <v>633</v>
       </c>
       <c r="K3" s="4">
-        <v>1645</v>
+        <v>2376</v>
       </c>
       <c r="L3" s="4">
-        <v>1482</v>
+        <v>1100</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3">
+        <v>499</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.30169286577992699</v>
+      </c>
+      <c r="P3" s="4">
+        <v>60.533066132264501</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>933</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.56408706166868094</v>
+      </c>
+      <c r="S3" s="4">
+        <v>11268</v>
+      </c>
+      <c r="T3" s="4">
+        <v>12.0771704180064</v>
+      </c>
+      <c r="U3" s="4">
+        <v>180</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.10882708585247799</v>
+      </c>
+      <c r="W3" s="6">
+        <v>41429.389983516099</v>
+      </c>
+      <c r="X3" s="6">
+        <v>230.16327768620101</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>436</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0.263603385731559</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>9138</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>20.958715596330201</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3">
-        <v>676</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0.331372549019607</v>
-      </c>
-      <c r="P3" s="4">
-        <v>54.903846153846096</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1329</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0.65147058823529402</v>
-      </c>
-      <c r="S3" s="4">
-        <v>14774</v>
-      </c>
-      <c r="T3" s="4">
-        <v>11.1166290443942</v>
-      </c>
-      <c r="U3" s="4">
-        <v>245</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0.120098039215686</v>
-      </c>
-      <c r="W3" s="6">
-        <v>55372.129855420397</v>
-      </c>
-      <c r="X3" s="6">
-        <v>226.00869328742999</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>545</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0.26715686274509798</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>9376</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>17.203669724770599</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AD3" s="4">
-        <v>366</v>
+        <v>1380</v>
       </c>
       <c r="AE3" s="4">
-        <v>163</v>
+        <v>1085</v>
       </c>
       <c r="AF3" s="5">
-        <v>0.44535519125682999</v>
+        <v>0.78623188405797095</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -928,97 +931,97 @@
         <v>10056</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4">
-        <v>2690</v>
+        <v>2168</v>
       </c>
       <c r="G4" s="4">
-        <v>14263</v>
+        <v>17917</v>
       </c>
       <c r="H4" s="4">
-        <v>6045</v>
+        <v>7165</v>
       </c>
       <c r="I4" s="5">
-        <v>0.42382387996915</v>
+        <v>0.39989953675280399</v>
       </c>
       <c r="J4" s="4">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="K4" s="4">
-        <v>1679</v>
+        <v>1733</v>
       </c>
       <c r="L4" s="4">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="N4" s="3">
-        <v>343</v>
+        <v>839</v>
       </c>
       <c r="O4" s="5">
-        <v>0.12750929368029701</v>
+        <v>0.38699261992619899</v>
       </c>
       <c r="P4" s="4">
-        <v>64.446064139941697</v>
+        <v>60.864123957091699</v>
       </c>
       <c r="Q4" s="4">
-        <v>1693</v>
+        <v>1479</v>
       </c>
       <c r="R4" s="5">
-        <v>0.62936802973977601</v>
+        <v>0.682195571955719</v>
       </c>
       <c r="S4" s="4">
-        <v>16442</v>
+        <v>20751</v>
       </c>
       <c r="T4" s="4">
-        <v>9.7117542823390401</v>
+        <v>14.030425963488799</v>
       </c>
       <c r="U4" s="4">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="V4" s="5">
-        <v>0.10446096654275</v>
+        <v>0.11023985239852301</v>
       </c>
       <c r="W4" s="6">
-        <v>47406.669899247499</v>
+        <v>57506.610059749299</v>
       </c>
       <c r="X4" s="6">
-        <v>168.707010317607</v>
+        <v>240.61343121234</v>
       </c>
       <c r="Y4" s="4">
-        <v>601</v>
+        <v>692</v>
       </c>
       <c r="Z4" s="5">
-        <v>0.223420074349442</v>
+        <v>0.31918819188191799</v>
       </c>
       <c r="AA4" s="4">
-        <v>9972</v>
+        <v>15371</v>
       </c>
       <c r="AB4" s="4">
-        <v>16.592346089850199</v>
+        <v>22.212427745664701</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="AD4" s="4">
-        <v>646</v>
+        <v>1375</v>
       </c>
       <c r="AE4" s="4">
-        <v>484</v>
+        <v>782</v>
       </c>
       <c r="AF4" s="5">
-        <v>0.74922600619195001</v>
+        <v>0.56872727272727197</v>
       </c>
     </row>
   </sheetData>
